--- a/test.xlsx
+++ b/test.xlsx
@@ -25,7 +25,7 @@
     <t>Links</t>
   </si>
   <si>
-    <t>Dates Listed</t>
+    <t>Date Listed</t>
   </si>
   <si>
     <t>Quality Intern (Melbourne, FL)</t>

--- a/test.xlsx
+++ b/test.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="50">
+  <si>
+    <t>Company</t>
+  </si>
   <si>
     <t>Titles</t>
   </si>
@@ -26,6 +29,9 @@
   </si>
   <si>
     <t>Date Listed</t>
+  </si>
+  <si>
+    <t>L3Harris</t>
   </si>
   <si>
     <t>Quality Intern (Melbourne, FL)</t>
@@ -528,13 +534,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -547,25 +553,31 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -573,247 +585,289 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>18</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" t="s">
-        <v>42</v>
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3"/>
-    <hyperlink ref="D5" r:id="rId4"/>
-    <hyperlink ref="D6" r:id="rId5"/>
-    <hyperlink ref="D7" r:id="rId6"/>
-    <hyperlink ref="D8" r:id="rId7"/>
-    <hyperlink ref="D9" r:id="rId8"/>
-    <hyperlink ref="D10" r:id="rId9"/>
-    <hyperlink ref="D11" r:id="rId10"/>
-    <hyperlink ref="D12" r:id="rId11"/>
-    <hyperlink ref="D13" r:id="rId12"/>
-    <hyperlink ref="D14" r:id="rId13"/>
-    <hyperlink ref="D15" r:id="rId14"/>
-    <hyperlink ref="D16" r:id="rId15"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E4" r:id="rId3"/>
+    <hyperlink ref="E5" r:id="rId4"/>
+    <hyperlink ref="E6" r:id="rId5"/>
+    <hyperlink ref="E7" r:id="rId6"/>
+    <hyperlink ref="E8" r:id="rId7"/>
+    <hyperlink ref="E9" r:id="rId8"/>
+    <hyperlink ref="E10" r:id="rId9"/>
+    <hyperlink ref="E11" r:id="rId10"/>
+    <hyperlink ref="E12" r:id="rId11"/>
+    <hyperlink ref="E13" r:id="rId12"/>
+    <hyperlink ref="E14" r:id="rId13"/>
+    <hyperlink ref="E15" r:id="rId14"/>
+    <hyperlink ref="E16" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
